--- a/input_data/18.xlsx
+++ b/input_data/18.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="1Т" sheetId="1" r:id="rId1"/>
+    <sheet name="1Т" sheetId="11" r:id="rId1"/>
     <sheet name="2Т" sheetId="2" r:id="rId2"/>
     <sheet name="ТВП" sheetId="3" r:id="rId3"/>
     <sheet name="Роз`єднувачі" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="318">
   <si>
     <t>ПС</t>
   </si>
@@ -980,6 +980,36 @@
   </si>
   <si>
     <t>Туалет</t>
+  </si>
+  <si>
+    <t>3 ТДК</t>
+  </si>
+  <si>
+    <t>ТМ-400/10 У1</t>
+  </si>
+  <si>
+    <t>4 ТДК</t>
+  </si>
+  <si>
+    <t>Реактор дугогасний</t>
+  </si>
+  <si>
+    <t>ДК-13</t>
+  </si>
+  <si>
+    <t>РЗДПОМ-480</t>
+  </si>
+  <si>
+    <t>ВАТ Донбасенерго</t>
+  </si>
+  <si>
+    <t>ДК-14</t>
+  </si>
+  <si>
+    <t>ДК-31</t>
+  </si>
+  <si>
+    <t>РЗДПОМ-700</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,6 +1089,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1361,16 +1392,10 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A44"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
@@ -1903,17 +1928,16 @@
       <c r="D44" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A23"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -2082,33 +2106,22 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>151</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2125,7 +2138,7 @@
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A44"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2163,9 +2176,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2174,9 +2185,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2185,18 +2194,14 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2205,9 +2210,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2216,9 +2219,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2227,9 +2228,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2238,9 +2237,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2249,9 +2246,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2260,9 +2255,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2271,9 +2264,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2282,9 +2273,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
@@ -2293,9 +2282,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -2304,9 +2291,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2315,9 +2300,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2326,9 +2309,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2337,9 +2318,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -2348,9 +2327,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2359,9 +2336,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2370,9 +2345,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2381,9 +2354,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
@@ -2392,9 +2363,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
@@ -2403,9 +2372,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
@@ -2414,9 +2381,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
@@ -2425,9 +2390,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
@@ -2436,9 +2399,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
@@ -2447,9 +2408,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
         <v>35</v>
       </c>
@@ -2458,9 +2417,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
@@ -2469,9 +2426,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2480,9 +2435,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
@@ -2491,9 +2444,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
@@ -2502,9 +2453,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
@@ -2513,9 +2462,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
         <v>44</v>
       </c>
@@ -2524,9 +2471,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
@@ -2535,9 +2480,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
@@ -2546,9 +2489,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
         <v>47</v>
       </c>
@@ -2557,9 +2498,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
         <v>48</v>
       </c>
@@ -2568,9 +2507,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A40" s="4"/>
       <c r="B40" s="3" t="s">
         <v>49</v>
       </c>
@@ -2579,9 +2516,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
         <v>50</v>
       </c>
@@ -2590,9 +2525,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
@@ -2601,9 +2534,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A43" s="4"/>
       <c r="B43" s="3" t="s">
         <v>52</v>
       </c>
@@ -2612,9 +2543,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
         <v>53</v>
       </c>
@@ -2688,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -2812,6 +2741,155 @@
       </c>
       <c r="K3" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="8">
+        <v>436450</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2010</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2011</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="8">
+        <v>436451</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2010</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2011</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.87</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2011</v>
+      </c>
+      <c r="H6" s="8">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2011</v>
+      </c>
+      <c r="H7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2011</v>
+      </c>
+      <c r="H8" s="8">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
@@ -5823,7 +5901,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+      <selection activeCell="A104" sqref="A104:XFD432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
